--- a/config/visualisation_category_mappings.xlsx
+++ b/config/visualisation_category_mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940EE897-9B68-4B3A-9167-0B1416604C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8979032-0A2A-40C5-89A3-11666928A4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="928" firstSheet="6" activeTab="11" xr2:uid="{AEE45C8C-0EF9-48C3-ACFD-81FEEA79684E}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="928" firstSheet="3" activeTab="6" xr2:uid="{AEE45C8C-0EF9-48C3-ACFD-81FEEA79684E}"/>
   </bookViews>
   <sheets>
     <sheet name="transport" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="259">
   <si>
     <t>ht</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>sub1sectors</t>
-  </si>
-  <si>
-    <t>transformation_sectors</t>
   </si>
   <si>
     <t>graph_fuel</t>
@@ -943,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -956,7 +953,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1814,13 +1810,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -2520,306 +2516,389 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B498688-B111-465A-B232-FEDE667A912B}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="b">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="b">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="b">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="b">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="b">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="b">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="b">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="b">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="b">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="b">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="b">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="b">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="b">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="b">
         <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="b">
         <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="b">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="b">
         <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="b">
         <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="b">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="b">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="b">
         <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="b">
         <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="b">
         <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="b">
         <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="b">
         <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2848,10 +2927,10 @@
         <v>97</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -2860,7 +2939,7 @@
         <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3158,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E737C6-E85A-4C83-BD1B-960C76CDEE14}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3170,68 +3249,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3242,29 +3321,29 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3275,7 +3354,7 @@
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3286,18 +3365,18 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3308,7 +3387,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3319,51 +3398,51 @@
         <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3390,16 +3469,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
         <v>250</v>
-      </c>
-      <c r="B1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -3410,10 +3489,10 @@
         <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3421,13 +3500,13 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3435,13 +3514,13 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3466,21 +3545,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -3491,7 +3570,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -3502,7 +3581,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -3513,7 +3592,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -3524,7 +3603,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -3538,7 +3617,7 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -3546,13 +3625,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3577,18 +3656,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3596,7 +3675,7 @@
         <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3606,17 +3685,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -3624,17 +3703,17 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -3642,40 +3721,40 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
         <v>148</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -3685,18 +3764,18 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -3704,107 +3783,107 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
         <v>163</v>
-      </c>
-      <c r="D25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -3883,10 +3962,10 @@
         <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3931,7 +4010,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3963,7 +4042,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4014,7 +4093,7 @@
         <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4022,7 +4101,7 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4030,7 +4109,7 @@
         <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -4038,7 +4117,7 @@
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -4046,7 +4125,7 @@
         <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -4086,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679201E6-74C0-4FAC-953D-01CE960822D3}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4102,7 +4181,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
         <v>85</v>
@@ -4111,7 +4190,7 @@
         <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -4156,7 +4235,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -4188,7 +4267,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4242,7 +4321,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4253,10 +4332,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4267,10 +4346,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -4281,7 +4360,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -4292,7 +4371,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -4321,275 +4400,275 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
       </c>
       <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
         <v>189</v>
-      </c>
-      <c r="D27" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s">
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
       </c>
       <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
         <v>211</v>
-      </c>
-      <c r="D44" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -4602,7 +4681,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -4610,7 +4689,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -4618,29 +4697,29 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4747,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
         <v>85</v>
@@ -4677,13 +4756,13 @@
         <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -4728,7 +4807,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -4760,7 +4839,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4814,7 +4893,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -4825,10 +4904,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -4839,10 +4918,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -4853,7 +4932,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -4864,7 +4943,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -6289,8 +6368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DFCE68-7CA6-45AA-941A-E4300B699932}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6300,13 +6379,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
         <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6437,7 +6516,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -6482,7 +6561,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -6490,7 +6569,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -6498,7 +6577,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -6506,7 +6585,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -6514,139 +6593,139 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -6654,7 +6733,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -6668,7 +6747,7 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -6679,7 +6758,7 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -6690,7 +6769,7 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -6701,7 +6780,7 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -6712,7 +6791,7 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -6723,7 +6802,7 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -6734,7 +6813,7 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -6745,7 +6824,7 @@
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -6756,7 +6835,7 @@
         <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -6767,7 +6846,7 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -6778,40 +6857,40 @@
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -6822,40 +6901,40 @@
         <v>18</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -6866,155 +6945,155 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -7022,106 +7101,106 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
         <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/config/visualisation_category_mappings.xlsx
+++ b/config/visualisation_category_mappings.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8979032-0A2A-40C5-89A3-11666928A4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D2A83-BC9C-4EE0-951A-8DE76ABEB6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="928" firstSheet="3" activeTab="6" xr2:uid="{AEE45C8C-0EF9-48C3-ACFD-81FEEA79684E}"/>
+    <workbookView xWindow="48000" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="928" activeTab="6" xr2:uid="{AEE45C8C-0EF9-48C3-ACFD-81FEEA79684E}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="3" activeTab="12" xr2:uid="{AED57BED-B1E7-489A-8804-67A119E705AE}"/>
   </bookViews>
   <sheets>
     <sheet name="transport" sheetId="1" r:id="rId1"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="262">
   <si>
     <t>ht</t>
   </si>
@@ -871,6 +872,15 @@
   </si>
   <si>
     <t>5_international_aviation_bunkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                '16_2_industrial_waste': 'Waste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                '16_3_municipal_solid_waste_renewable': 'Waste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                '16_4_municipal_solid_waste_nonrenewable': 'Waste',</t>
   </si>
 </sst>
 </file>
@@ -880,7 +890,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0.0;\-#\ ###\ ###\ ##0.0;\-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +901,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -940,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -953,6 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1652,16 +1670,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1676,8 +1694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="914400"/>
-          <a:ext cx="7607300" cy="6273800"/>
+          <a:off x="6353175" y="6400800"/>
+          <a:ext cx="7607300" cy="6829425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,6 +1816,34 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Note that this mapping DOES NOT INCLUDE TRANSFORMATION SECTORS LIKE POWER, HYDROGEN AND REFINING</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13_x_dem_pow_own_hyd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Definitions:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1983,15 +2029,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2007,8 +2053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334125" y="723900"/>
-          <a:ext cx="5876925" cy="3267075"/>
+          <a:off x="9848850" y="79373"/>
+          <a:ext cx="5876925" cy="28524202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2072,7 +2118,894 @@
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
             <a:t>sheet is required so that not all vlaues with that name are replaced, because it is specific to that sheet</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>defiunitions (FOR ALL THE BELOW, I FOUND THEM IN MATTS CODE, DONT KNOW IF THEY WILL BECOME USEFUL OR NOT. FOR NOW JSUT LEAVING THEM HERE)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Heat:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EGEDA_hist_heat['TECHNOLOGY'] = EGEDA_hist_heat['fuel_code'].map({'1_coal': 'Coal', </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '1_5_lignite': 'Lignite', </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '2_coal_products': 'Coal',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '6_crude_oil_and_ngl': 'Oil',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '7_petroleum_products': 'Oil',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '8_gas': 'Gas', </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '9_nuclear': 'Other',  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '11_geothermal': 'Other', </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '15_solid_biomass': 'Biomass', </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '16_1_biogas': 'Other',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '16_2_industrial_waste': 'Waste',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '16_3_municipal_solid_waste_renewable': 'Waste',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '16_4_municipal_solid_waste_nonrenewable': 'Waste',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '16_8_other_liquid_biofuels': 'Other',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '16_9_other_sources': 'Other',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '17_electricity': 'Other',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                '18_heat': 'Other'})</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>electricity generation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_hist_gen['TECHNOLOGY'] = EGEDA_hist_gen['fuel_code'].map({'1_coal': 'Coal', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '1_5_lignite': 'Lignite', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '2_coal_products': 'Coal',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '6_crude_oil_and_ngl': 'Oil',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '7_petroleum_products': 'Oil',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '8_gas': 'Gas', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '9_nuclear': 'Nuclear', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '10_hydro': 'Hydro', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '11_geothermal': 'Geothermal', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '12_solar': 'Solar', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '13_tide_wave_ocean': 'Hydro', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '14_wind': 'Wind', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '15_solid_biomass': 'Bio', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '16_others': 'Other', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                '17_electricity': </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t> i) own use and losses and ii) power consumption </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_hist_power['FUEL'] = EGEDA_hist_power['fuel_code'].map({'1_coal': 'Coal', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '1_5_lignite': 'Lignite', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '2_coal_products': 'Coal',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '6_crude_oil_and_ngl': 'Oil',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '7_petroleum_products': 'Oil',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '8_gas': 'Gas', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '9_nuclear': 'Nuclear', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '10_hydro': 'Hydro', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '11_geothermal': 'Geothermal', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '12_solar': 'Solar', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '13_tide_wave_ocean': 'Hydro', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '14_wind': 'Wind', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '15_solid_biomass': 'Biomass', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '16_1_biogas': 'Other renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '16_2_industrial_waste': 'Other',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '16_3_municipal_solid_waste_renewable': 'Other renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '16_4_municipal_solid_waste_nonrenewable': 'Other',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '16_6_biodiesel': 'Other renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '16_8_other_liquid_biofuels': 'Other renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                              '16_9_other_sources': 'Other'})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>FOR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> CONSUMPTION ONLY:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_histpower_oil['FUEL'] = EGEDA_histpower_oil['fuel_code'].map({'6_crude_oil_and_ngl': 'Crude oil &amp; NGL',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                    '7_petroleum_products': 'Petroleum products'})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>### liquid and solid renewables</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_histpower_renew = EGEDA_data[(EGEDA_data['item_code_new'].isin(['9_1_main_activity_producer', '9_2_autoproducers'])) &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                 (EGEDA_data['fuel_code'].isin(['15_solid_biomass', '16_1_biogas', '16_3_municipal_solid_waste_renewable', '16_5_biogasoline', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                                    '16_6_biodiesel', '16_7_bio_jet_kerosene', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                                    '16_8_other_liquid_biofuels']))]\</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                    .copy().reset_index(drop = True)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_histpower_renew['FUEL'] = EGEDA_histpower_renew['fuel_code'].map({'15_solid_biomass': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                        '16_1_biogas': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                        '16_3_municipal_solid_waste_renewable': 'Liquid and solid renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                        '16_5_biogasoline': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                        '16_6_biodiesel': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                        '16_7_bio_jet_kerosene': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                        '16_8_other_liquid_biofuels': 'Liquid and solid renewables'})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t># Special grab for coal report ##########</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_hist_owncoal = EGEDA_hist_own[EGEDA_hist_own['fuel_code'].isin(['1_coal', '1_5_lignite', '2_coal_products'])].copy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_hist_own['FUEL'] = EGEDA_hist_own['fuel_code'].map({'1_coal': 'Coal', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '1_5_lignite': 'Coal', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '2_coal_products': 'Coal',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '3_peat': 'Coal',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '4_peat_products': 'Coal',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '6_crude_oil_and_ngl': 'Oil',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '7_petroleum_products': 'Oil',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '8_gas': 'Gas',  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '15_solid_biomass': 'Renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '16_1_biogas': 'Renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '16_2_industrial_waste': 'Other',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '16_6_biodiesel': 'Renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '17_electricity': 'Electricity',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                          '18_heat': 'Heat'})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t># Refining historical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_hist_refining = EGEDA_data[(EGEDA_data['item_code_new'].isin(['9_4_oil_refineries'])) &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                 (EGEDA_data['fuel_code'].isin(['6_crude_oil_and_ngl']))].copy().reset_index(drop = True)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t># liquid and solid renewables historical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_hist_own_renew = EGEDA_data[(EGEDA_data['item_code_new'].isin(['10_losses_and_own_use'])) &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                (EGEDA_data['fuel_code'].isin(['15_solid_biomass', '16_1_biogas', '16_3_municipal_solid_waste_renewable', '16_5_biogasoline', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                                    '16_6_biodiesel', '16_7_bio_jet_kerosene', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                                    '16_8_other_liquid_biofuels']))]\</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                  .copy().reset_index(drop = True)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>EGEDA_hist_own_renew['FUEL'] = EGEDA_hist_own_renew['fuel_code'].map({'15_solid_biomass': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                      '16_1_biogas': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                      '16_3_municipal_solid_waste_renewable': 'Liquid and solid renewables',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                      '16_5_biogasoline': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                      '16_6_biodiesel': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                      '16_7_bio_jet_kerosene': 'Liquid and solid renewables', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>                                                                      '16_8_other_liquid_biofuels': 'Liquid and solid renewables'})</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2458,6 +3391,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2521,6 +3455,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2913,6 +3848,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3240,6 +4176,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3454,10 +4391,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F6FDBA-E8BF-40D4-8F07-2A628D28F9E5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="I41" sqref="I41:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3522,6 +4462,21 @@
       <c r="D4" t="s">
         <v>251</v>
       </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,6 +4491,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3651,6 +4607,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -3931,6 +4888,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -3943,6 +4901,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4168,6 +5127,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4735,6 +5695,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6101,6 +7062,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6366,11 +7328,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DFCE68-7CA6-45AA-941A-E4300B699932}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:C83"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7118,7 +8081,7 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -7129,7 +8092,7 @@
         <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -7140,7 +8103,7 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -7151,7 +8114,7 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -7162,45 +8125,32 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7218,6 +8168,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7413,6 +8364,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
